--- a/Data/Input/CM_Quotes/Test_Quote.xlsx
+++ b/Data/Input/CM_Quotes/Test_Quote.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jowino\Documents\UiPath\FTTB_Purchase_Requistion_Raising\Data\Input\CM_Quotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A892DA-79E0-4E17-AF7C-03DDDD368F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56A8223-CA5B-410F-8FE7-DDBAE8F699BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32580" yWindow="3975" windowWidth="14400" windowHeight="7365" xr2:uid="{BD57DB04-2CAC-4324-8C2F-19EA2F7D9A31}"/>
+    <workbookView xWindow="1400" yWindow="810" windowWidth="14400" windowHeight="7370" activeTab="1" xr2:uid="{BD57DB04-2CAC-4324-8C2F-19EA2F7D9A31}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Shub" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="194">
   <si>
     <t>Item Description</t>
   </si>
@@ -72,15 +74,560 @@
   </si>
   <si>
     <t>Meter</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Price </t>
+  </si>
+  <si>
+    <t>CM_Quote Description</t>
+  </si>
+  <si>
+    <t>Buildings ISP Fiber Deployment-  Incentive for Building Acquisition at zero fee</t>
+  </si>
+  <si>
+    <t>Each</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -   </t>
+  </si>
+  <si>
+    <t>Aerial Fiber Deployment - As-Built Documentation in hard and softcopy updated in Safaricom GIS Tool including all Connection details (GIS, CAD, Mapinfo etc)</t>
+  </si>
+  <si>
+    <t>METER</t>
+  </si>
+  <si>
+    <t>BF Fiber Deployment OSP- As-Built Documentation in hard and softcopy updated in Safaricom GIS Tool including all Connection details</t>
+  </si>
+  <si>
+    <t>As built documents</t>
+  </si>
+  <si>
+    <t>BF Fiber Deployment OSP- Duct Inspection Test on existing duct system (Mandrel, brush, pressure etc.)</t>
+  </si>
+  <si>
+    <t>BF-Duct Inspection Test per meter</t>
+  </si>
+  <si>
+    <t>BF Fiber Deployment OSP- CM based survey &amp; design including all network elements fibres provisioning &amp; statutory approval application drawings</t>
+  </si>
+  <si>
+    <t>Field detailed survey report</t>
+  </si>
+  <si>
+    <t>Field detailed Technical and Health and Safety Survey (report with site/route photos) &amp; detailed route design (GIS &amp; CAD) to output an implementable Design</t>
+  </si>
+  <si>
+    <t>GIS based survey &amp; design BF</t>
+  </si>
+  <si>
+    <t>BF Fiber Deployment OSP- Route Cleaning</t>
+  </si>
+  <si>
+    <t>BF-Route Cleaning</t>
+  </si>
+  <si>
+    <t>GF Fibre Deployment OSP - Planning Services ( 1.2 M Trench )</t>
+  </si>
+  <si>
+    <t>GF-Planning Services(1.2/0.6 Trench)</t>
+  </si>
+  <si>
+    <t>GF Fibre Deployment OSP - Planning Services  Connect Master Based Design ( 0.6 M Trench )</t>
+  </si>
+  <si>
+    <t>Aerial Fibre Deployment OSP- Supply and installation of pole steel straps with accessories (buckle pins)</t>
+  </si>
+  <si>
+    <t>BF Fiber Deployment OSP- Installation of 1 X 12/10m  microduct in existing 32/26mm HDPE duct (Includes joints)</t>
+  </si>
+  <si>
+    <t>BF Fiber Deployment OSP- Installation of duct on wall attachment</t>
+  </si>
+  <si>
+    <t>BF Fiber Deployment OSP- Pulling Cable in existing Duct</t>
+  </si>
+  <si>
+    <t>Units ISP Fiber Deployment- Installation of 1, 2, 4 core drop cable for ISP (Bend-Insensitive Fiber)Indoor/Outdoor drop cable Aramid Yam LSZH, G657A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installation of 1, 2, 4 core drop cable for ISP </t>
+  </si>
+  <si>
+    <t>BF Fiber Deployment OSP- Blowing upto 12-96 core Cable in existing Duct</t>
+  </si>
+  <si>
+    <t>BF Fiber Deployment OSP- Blowing upto 144 core Cable in existing Duct</t>
+  </si>
+  <si>
+    <t>Aerial Fiber Deployment - Installation of aerial O.F.Cable &amp; Tensioning (12, 24, 48, 96, 144 fibers)</t>
+  </si>
+  <si>
+    <t>Installation of Aerial Cable</t>
+  </si>
+  <si>
+    <t>BF Fiber Deployment OSP- Project Management Incl of Health &amp; Safety</t>
+  </si>
+  <si>
+    <t>Project Management BF</t>
+  </si>
+  <si>
+    <t>Units ISP Fiber Deployment- Installation of 12, 24, 48, 96 core drop cable for ISP(Bend-Insensitive,armoured cable) Outdoor Armored cable, G657A2</t>
+  </si>
+  <si>
+    <t>Aerial Fiber Deployment - Project Management Incl of Health &amp; Safety</t>
+  </si>
+  <si>
+    <t>Project Management Aerial Incl of H&amp;S per meter</t>
+  </si>
+  <si>
+    <t>GF Fibre Deployment OSP - Cable Installation ( 1.2 M Trench )</t>
+  </si>
+  <si>
+    <t>GF Fibre Deployment OSP - Cable Installation ( 0.6 M Trench )</t>
+  </si>
+  <si>
+    <t>GF Fibre Deployment OSP - Project Management ( 1.2 M Trench )</t>
+  </si>
+  <si>
+    <t>GF-Project Management Incl of H&amp;S (1.2/0.6 Trench)</t>
+  </si>
+  <si>
+    <t>GF Fibre Deployment OSP - Project Management ( Linearised 0.6 M Trench )</t>
+  </si>
+  <si>
+    <t>Normal Logistics cost</t>
+  </si>
+  <si>
+    <t>Kilometer</t>
+  </si>
+  <si>
+    <t>Units ISP Fiber Deployment- Supply &amp; Installation of PlasticTrunking size 16*16mm  with accessories (Inclusive of breaking the ceiling, drilling the wall and reinstatement)</t>
+  </si>
+  <si>
+    <t>Units ISP Fiber Deployment- Supply &amp; Installation of  Surface Flexible corrugated PVC pipe (25/22mm)  with accessories</t>
+  </si>
+  <si>
+    <t>Supply, Install corrugated PVC pipe</t>
+  </si>
+  <si>
+    <t>Aerial Fibre Deployment OSP- Supply and Installation of approved Cable markers – ADSS Cable</t>
+  </si>
+  <si>
+    <t>Supply and Installation of approved Cable markers</t>
+  </si>
+  <si>
+    <t>Units ISP Fiber Deployment- Supply &amp; Installation of Plastic Trunking size 38*25mm  with accessories  (Inclusive of breaking the ceiling, drilling the wall and reinstatement)</t>
+  </si>
+  <si>
+    <t>Supply, Install PlasticTrunking size 38*25mm</t>
+  </si>
+  <si>
+    <t>Supply &amp; Install Cat 6E STP Cable – Indoor</t>
+  </si>
+  <si>
+    <t>Supply &amp; Install Flexible Conduits</t>
+  </si>
+  <si>
+    <t>Supply &amp; Install Cable Trunking</t>
+  </si>
+  <si>
+    <t>Units ISP Fiber Deployment- Core drilling</t>
+  </si>
+  <si>
+    <t>Core Drilling per unit</t>
+  </si>
+  <si>
+    <t>Brown Field Fiber Deployment OSP- Transportation cost per project especially on hardship/security prone areas</t>
+  </si>
+  <si>
+    <t>Supply &amp; Install Cat 6E STP Cable – Outdoor</t>
+  </si>
+  <si>
+    <t>Supply &amp; Install CAT6 patch cord</t>
+  </si>
+  <si>
+    <t>Units ISP Fiber Deployment- Supply &amp; Installation of sealing silicon material</t>
+  </si>
+  <si>
+    <t>BF Fiber Deployment OSP- Installation of 1 X 16, 32, 64 port Splitter</t>
+  </si>
+  <si>
+    <t>Installation of 1 X 16, 32, 64 port Splitter</t>
+  </si>
+  <si>
+    <t>Units ISP Fiber Deployment- ISP Survey, CM based Design &amp; Documentation</t>
+  </si>
+  <si>
+    <t>BF Fiber Deployment OSP- Trenching up to 0.3m deep, lay ducts , install warning tape and reinstate</t>
+  </si>
+  <si>
+    <t>GF Fibre Deployment OSP - Civil Works for Main Route ( 0.6 M Trench )</t>
+  </si>
+  <si>
+    <t>BF Fiber Deployment OSP- Splicing, Testing and Commissioning</t>
+  </si>
+  <si>
+    <t>Splicing, Testing and Commissioning  1 Core</t>
+  </si>
+  <si>
+    <t>Units ISP Fiber Deployment- Installation of ONU on the wall with accessories</t>
+  </si>
+  <si>
+    <t>Units ISP Fiber Deployment- Installation of set-top box on the wall with accessories</t>
+  </si>
+  <si>
+    <t>Units ISP Fiber Deployment- ONU &amp; set-top box configuration</t>
+  </si>
+  <si>
+    <t>BF Fiber Deployment OSP- Trenching up to 0.6m deep, lay ducts , install warning tape and reinstate</t>
+  </si>
+  <si>
+    <t>Units ISP Fiber Deployment- Homes ISP Fiber Deployment- Installation of ATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installation of ATB </t>
+  </si>
+  <si>
+    <t>GF Fibre Deployment OSP - Civil Works for Main Route ( 1.2 M Trench )</t>
+  </si>
+  <si>
+    <t>GF-Civil Works for Main Route(1.2 Trench)</t>
+  </si>
+  <si>
+    <t>Brown Field Fiber Deployment OSP- Removing of heavy dumping material inclusive of bush clearing</t>
+  </si>
+  <si>
+    <t>BF Fiber Deployment OSP- Trenching up to 1.2m deep, lay ducts , install warning tape and reinstate</t>
+  </si>
+  <si>
+    <t>Trenching up to 1.2m deep, lay ducts and reinstate</t>
+  </si>
+  <si>
+    <t>Units ISP Fiber Deployment- Project management for ISP&amp;Termination implementation</t>
+  </si>
+  <si>
+    <t>Aerial Fibre Deployment OSP- Supply and installation of lashing clamps with accessories</t>
+  </si>
+  <si>
+    <t>Buildings ISP Fiber Deployment-  As built documents for ISP</t>
+  </si>
+  <si>
+    <t>Units ISP Fiber Deployment- Installation of FAT 12, 24, 48 ports with accessories</t>
+  </si>
+  <si>
+    <t>Units ISP Fiber Deployment- Installation of FAT 96 ports with accessories</t>
+  </si>
+  <si>
+    <t>Units ISP Fiber Deployment- Supply &amp; Installation of cable tray width 50mm</t>
+  </si>
+  <si>
+    <t>Supply, Install and fix cable tray  50mm</t>
+  </si>
+  <si>
+    <t>Units ISP Fiber Deployment- Supply &amp; Installation of cable tray width 100mm</t>
+  </si>
+  <si>
+    <t>Brown Field Fiber Deployment OSP- Supply &amp; Installation of Foam sealant for the manholes</t>
+  </si>
+  <si>
+    <t>Aerial Fibre Deployment OSP- Supply and installation of Vibration Dampers Cables</t>
+  </si>
+  <si>
+    <t>Aerial Fibre Deployment OSP- Supply and installation of P - hook &amp; J - Hooks</t>
+  </si>
+  <si>
+    <t>Aerial Fibre Deployment OSP- Supply and installation of Universal Pole brackets</t>
+  </si>
+  <si>
+    <t>Supply and installation of Universal Pole bracket</t>
+  </si>
+  <si>
+    <t>Units ISP Fiber Deployment- Installation and configuration of  Outdoor Fixed Wireless CPE including supply of consumables (LAN Cables, tiewraps etc)</t>
+  </si>
+  <si>
+    <t>Aerial Fiber Deployment - Supply and installation of Down-lead clamps for wooden or Concrete poles</t>
+  </si>
+  <si>
+    <t>Pole Down-lead clamp, Supply and Installation</t>
+  </si>
+  <si>
+    <t>Aerial Fibre Deployment OSP- Supply and Installation of Stand-off brackets (Adjustable Pole clamps)</t>
+  </si>
+  <si>
+    <t>BF Fiber Deployment OSP- Supply &amp; install electronic ball marker</t>
+  </si>
+  <si>
+    <t>BF Fiber Deployment OSP- Concrete envelop where instructed (Including constuction material)(thickness 20cm)</t>
+  </si>
+  <si>
+    <t>Concrete envelop where instructed (20cm Thick)</t>
+  </si>
+  <si>
+    <t>Aerial Fiber Deployment - Supply and installation of tangent/mid-span support clamp for wooden or concrete poles</t>
+  </si>
+  <si>
+    <t>Pole Tangent Support, Supply and Installation</t>
+  </si>
+  <si>
+    <t>Integration to client LAN(Configuration/setup of extenders, access Points ,Firewalls and Routers</t>
+  </si>
+  <si>
+    <t>After Sale Support(CPE,LAN,WIFI)</t>
+  </si>
+  <si>
+    <t>Misc - Tie wraps, insulating tape, cable lugs, staples, RJ 45 connectors, earthing etc</t>
+  </si>
+  <si>
+    <t>Aerial Fibre Deployment OSP- Supply and installation of preformed guy grip dead end with protection accessories</t>
+  </si>
+  <si>
+    <t>Units ISP Fiber Deployment- Supply &amp; Installation of cable tray width 150mm</t>
+  </si>
+  <si>
+    <t>BF Fiber Deployment OSP- Installation of micro cable joint box (12, 24, 48, 96, 144 fibers)</t>
+  </si>
+  <si>
+    <t>BF Fiber Deployment OSP- Supply &amp; install road marker</t>
+  </si>
+  <si>
+    <t>Aerial Fiber Deployment - Supply and installation of Slack cable storage bracket for wooden or Concrete poles</t>
+  </si>
+  <si>
+    <t>Pole Cable Bracket, Supply and Installation</t>
+  </si>
+  <si>
+    <t>Aerial Fiber Deployment - Supply and Installation of Tension Clamp for wooden or Concrete poles</t>
+  </si>
+  <si>
+    <t>Pole Tension Clamp, Supply and Installation</t>
+  </si>
+  <si>
+    <t>Units ISP Fiber Deployment- Technician</t>
+  </si>
+  <si>
+    <t>Brown Field Fiber Deployment OSP- Install Bridge attachment inclusive of design, installation of GI and accessories</t>
+  </si>
+  <si>
+    <t>Brown Field Fiber Deployment OSP- Recovery of Precast and Polymer Reinforced manholes</t>
+  </si>
+  <si>
+    <t>BF Fiber Deployment OSP- Install Precast Handhole, Polymer covers and accessories</t>
+  </si>
+  <si>
+    <t>BF Fiber Deployment OSP- Installation of Preconnectorized ODF (12, 24, 48 ports)</t>
+  </si>
+  <si>
+    <t>BF Fiber Deployment OSP- Installation of Preconnectorized ODF (96, 144 ports)</t>
+  </si>
+  <si>
+    <t>Buildings ISP Fiber Deployment-  Installation of IPRAN Access Switch (AR or Switch)</t>
+  </si>
+  <si>
+    <t>Aerial Fiber Deployment - Installation Joint box for ADSS cable joint (24, 48, 96 fibers, Light weight)</t>
+  </si>
+  <si>
+    <t>Installation of Aerial micro cable joint box</t>
+  </si>
+  <si>
+    <t>BF Fiber Deployment OSP- Microtunneling or road crossing (entire work)</t>
+  </si>
+  <si>
+    <t>Aerial Fibre Deployment OSP- Recovery of poles (includes digging out, pit reinstatement &amp; transportation)</t>
+  </si>
+  <si>
+    <t>Decommissioning, Recovery(CPE,LAN equipments/WIFI Equipments) Testing and Rekitting per CPE</t>
+  </si>
+  <si>
+    <t>BF Fiber Deployment OSP- Splicing, Testing and Commissioning 6-12 cores</t>
+  </si>
+  <si>
+    <t>BATCH</t>
+  </si>
+  <si>
+    <t>Aerial Fibre Deployment OSP- Installation of approved wooden pole (includes digging, pole erection &amp; ramming) (8m, 10m &amp; 12m)</t>
+  </si>
+  <si>
+    <t>Aerial Fibre Deployment OSP- Relocation of pole support</t>
+  </si>
+  <si>
+    <t>BF Fiber Deployment OSP- Site/Building Survey</t>
+  </si>
+  <si>
+    <t>BF Fiber Deployment OSP- Install Precast Manhole, Polymer covers and accessories</t>
+  </si>
+  <si>
+    <t>Install Precast Manhole, Polymer covers and access</t>
+  </si>
+  <si>
+    <t>Aerial Fibre Deployment OSP- Installation of WIFI Extender inclusive of accessories</t>
+  </si>
+  <si>
+    <t>Aerial Fibre Deployment OSP- Installation of Fibre Reinforced Polymer (FRP) Poles (includes digging, pole erection &amp; ramming 8m - 12m)</t>
+  </si>
+  <si>
+    <t>Installation and Configuration for Outdoor CPE &amp; Router Integration</t>
+  </si>
+  <si>
+    <t>Installation and Configuration for Indoor CPE &amp; Router Integration</t>
+  </si>
+  <si>
+    <t>Buildings ISP Fiber Deployment-  ISP Survey, Design &amp; Documentation</t>
+  </si>
+  <si>
+    <t>Aerial Fibre Deployment OSP- Installation of approved concrete pole (includes digging, pole erection &amp; ramming) (8m, 10m &amp; 12m)</t>
+  </si>
+  <si>
+    <t>Brown Field Fiber Deployment OSP- Supply &amp; Install of concrete route marker posts</t>
+  </si>
+  <si>
+    <t>Aerial Fibre Deployment OSP- Relocation of wooden poles</t>
+  </si>
+  <si>
+    <t>Survey for indoor/Outdoor CPE &amp; Documentation</t>
+  </si>
+  <si>
+    <t>Relocation(CPE,LAN equipments/WIFI Equipments)</t>
+  </si>
+  <si>
+    <t>BF Fiber Deployment OSP- Splicing, Testing and Commissioning 13-24 cores</t>
+  </si>
+  <si>
+    <t>Splicing, Testing and Commissioning 13-24 cores</t>
+  </si>
+  <si>
+    <t>Brown Field Fiber Deployment OSP- Install Gabions inclusive of design, installation of mesh cage and accessories</t>
+  </si>
+  <si>
+    <t>Aerial Fibre Deployment OSP- Supply of approved wooden pole for support services - 8m</t>
+  </si>
+  <si>
+    <t>Supply of Galvanised/Alluminium Pole -2 inch diametre - Standard 3m per installation including mounting bracket</t>
+  </si>
+  <si>
+    <t>Supply of Galvanised/Alluminium Brackets for CPE Mounting</t>
+  </si>
+  <si>
+    <t>Brown Field Fiber Deployment OSP- Supply &amp; Install 6U Cabinet - With lockable door</t>
+  </si>
+  <si>
+    <t>Units ISP Fiber Deployment- Estate Acquisition Gated Community (50-200 Units )</t>
+  </si>
+  <si>
+    <t>Aerial Fiber Deployment - Supply and Installation of Pole Support System for wooden or Concrete poles</t>
+  </si>
+  <si>
+    <t>Pole Support, Supply and Installation</t>
+  </si>
+  <si>
+    <t>BF Fiber Deployment OSP- Splicing, Testing and Commissioning 25-48 cores</t>
+  </si>
+  <si>
+    <t>Brown Field Fiber Deployment OSP- Supply &amp; Install 9U Cabinet - With lockable door</t>
+  </si>
+  <si>
+    <t>Aerial Fibre Deployment OSP- Supply and Installation of Fibreglass By-Pass/Extension Arms (36"")</t>
+  </si>
+  <si>
+    <t>Aerial Fibre Deployment OSP- Supply of approved wooden pole for support services (10 &amp; 12m)</t>
+  </si>
+  <si>
+    <t>BF Fiber Deployment OSP- Construct and install Masonry Manhole, Cover and accessories (500x500x600mm)</t>
+  </si>
+  <si>
+    <t>Units ISP Fiber Deployment- Installation of OLT</t>
+  </si>
+  <si>
+    <t>Aerial Fiber Deployment - Supply &amp; installation of approved wooden pole (includes digging, pole erection &amp; ramming) (8m)</t>
+  </si>
+  <si>
+    <t>Pole, Supply &amp; installation Wooden 8m</t>
+  </si>
+  <si>
+    <t>BF Fiber Deployment OSP- Installation of 144port cabinet on poles inclusive of accessories</t>
+  </si>
+  <si>
+    <t>BF Fiber Deployment OSP- Installation of IPRAN Node (ATN) Installation &amp; Commissioning scope</t>
+  </si>
+  <si>
+    <t>Aerial Fibre Deployment OSP- Supply &amp; installation of approved wooden pole (includes digging, pole erection &amp; ramming) (10 &amp; 12m)</t>
+  </si>
+  <si>
+    <t>Pole, Supply &amp; installation Wooden 10m</t>
+  </si>
+  <si>
+    <t>Pole, Supply &amp; installation Wooden 12m</t>
+  </si>
+  <si>
+    <t>BF Fiber Deployment OSP- Directional drilling in Rock</t>
+  </si>
+  <si>
+    <t>Aerial Fibre Deployment OSP- Supply of approved concrete pole for support services - 8m</t>
+  </si>
+  <si>
+    <t>BF Fiber Deployment OSP- Splicing, Testing and Commissioning 49-96 cores</t>
+  </si>
+  <si>
+    <t>Aerial Fibre Deployment OSP- Supply of approved concrete pole for support services (10 &amp; 12m)</t>
+  </si>
+  <si>
+    <t>Units ISP Fiber Deployment- Estate Acquisition Gated Community (200-500 Units )</t>
+  </si>
+  <si>
+    <t>BF Fiber Deployment OSP- Installation 144, 288, 576 Port Cabinet including Concrete Pedestal</t>
+  </si>
+  <si>
+    <t>Aerial Fiber Deployment - Supply &amp; installation of approved concrete pole (includes digging, pole erection &amp; ramming) (8m)</t>
+  </si>
+  <si>
+    <t>Brown Field Fiber Deployment OSP- 144, 288, 576 Port Cabinet Relocation and re-installation including concrete pedestal/pole mounting</t>
+  </si>
+  <si>
+    <t>Hire of Scaffolding/Cherry Picker</t>
+  </si>
+  <si>
+    <t>BF Fiber Deployment OSP- Splicing, Testing and Commissioning 97-144 cores</t>
+  </si>
+  <si>
+    <t>Aerial Fibre Deployment OSP- Supply &amp; installation of approved concrete pole (includes digging, pole erection &amp; ramming) (10 &amp; 12m)</t>
+  </si>
+  <si>
+    <t>Buildings ISP Fiber Deployment- Building Acquisition</t>
+  </si>
+  <si>
+    <t>ISP Building Acquisition</t>
+  </si>
+  <si>
+    <t>Aerial Fibre Deployment OSP- Supply and Installation of Fibre Reinforced Polymer (FRP) Poles (includes digging, pole erection &amp; ramming 8m - 12m)</t>
+  </si>
+  <si>
+    <t>Units ISP Fiber Deployment- Estate Acquisition Gated Community clusters (501-1000 Units )</t>
+  </si>
+  <si>
+    <t>BF Fiber Deployment OSP- Splicing, Testing and Commissioning 145-288 cores</t>
+  </si>
+  <si>
+    <t>Units ISP Fiber Deployment- Estate Acquisition Gated Community (1001-2000 Units )</t>
+  </si>
+  <si>
+    <t>BF Fiber Deployment OSP- Splicing, Testing and Commissioning 289-576 cores</t>
+  </si>
+  <si>
+    <t>Units ISP Fiber Deployment- Estate Acquisition Gated Community clusters (over 2000 Units )</t>
+  </si>
+  <si>
+    <t>UOM_1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###,###.00"/>
-    <numFmt numFmtId="165" formatCode="###,###,###.00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -184,12 +731,10 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA7D0387-9D33-42A7-95B3-3BA9813FB715}">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -516,7 +1061,7 @@
     <col min="2" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,13 +1074,8 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:20" s="3" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -548,11 +1088,8 @@
       <c r="D2" s="7">
         <v>1</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:20" s="3" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -565,11 +1102,8 @@
       <c r="D3" s="7">
         <v>1</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:20" s="3" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -582,11 +1116,8 @@
       <c r="D4" s="7">
         <v>2</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:20" s="3" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -599,11 +1130,8 @@
       <c r="D5" s="7">
         <v>1</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:20" s="3" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -616,15 +1144,12 @@
       <c r="D6" s="7">
         <v>1</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="6">
@@ -633,25 +1158,1897 @@
       <c r="D7" s="6">
         <v>124</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BA5B91-39BE-4885-A0A9-44D289EC2A66}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>54.400001525878899</v>
+      </c>
+      <c r="D2">
+        <v>124</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>54.4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>54.400001525878899</v>
+      </c>
+      <c r="D3">
+        <v>124</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>54.4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>880</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>880</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>880</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>880</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>2200</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>2200</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>4400</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>4400</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864005FC-FDC6-4E63-9CE0-D0AB8CFD1612}">
+  <dimension ref="A1:D140"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="43.26953125" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>5.28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>23.23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>23.23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>36.96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>36.96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>54.4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <v>54.4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <v>59.63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25">
+        <v>59.63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26">
+        <v>64.010000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28">
+        <v>80</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29">
+        <v>85</v>
+      </c>
+      <c r="D29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>90</v>
+      </c>
+      <c r="D30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34">
+        <v>150</v>
+      </c>
+      <c r="D34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39">
+        <v>264</v>
+      </c>
+      <c r="D39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41">
+        <v>366.08</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42">
+        <v>385.65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43">
+        <v>440</v>
+      </c>
+      <c r="D43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47">
+        <v>488.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48">
+        <v>528</v>
+      </c>
+      <c r="D48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49">
+        <v>556.82000000000005</v>
+      </c>
+      <c r="D49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51">
+        <v>610.72</v>
+      </c>
+      <c r="D51" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54">
+        <v>880</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55">
+        <v>880</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>94</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57">
+        <v>910</v>
+      </c>
+      <c r="D57" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>96</v>
+      </c>
+      <c r="B58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="9">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="9">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>98</v>
+      </c>
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="9">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>99</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="9">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>100</v>
+      </c>
+      <c r="B62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="9">
+        <v>1250</v>
+      </c>
+      <c r="D62" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="9">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>103</v>
+      </c>
+      <c r="B64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="9">
+        <v>1500</v>
+      </c>
+      <c r="D64" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>105</v>
+      </c>
+      <c r="B65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="9">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>106</v>
+      </c>
+      <c r="B66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="9">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>107</v>
+      </c>
+      <c r="B67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="9">
+        <v>1800</v>
+      </c>
+      <c r="D67" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>109</v>
+      </c>
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="9">
+        <v>1800</v>
+      </c>
+      <c r="D68" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>111</v>
+      </c>
+      <c r="B69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>112</v>
+      </c>
+      <c r="B70" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>113</v>
+      </c>
+      <c r="B71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>114</v>
+      </c>
+      <c r="B72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="9">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>115</v>
+      </c>
+      <c r="B73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="9">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>116</v>
+      </c>
+      <c r="B74" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="9">
+        <v>2200</v>
+      </c>
+      <c r="D74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>117</v>
+      </c>
+      <c r="B75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="9">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>118</v>
+      </c>
+      <c r="B76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="9">
+        <v>2200</v>
+      </c>
+      <c r="D76" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>120</v>
+      </c>
+      <c r="B77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="9">
+        <v>2300</v>
+      </c>
+      <c r="D77" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>122</v>
+      </c>
+      <c r="B78" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" s="9">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>123</v>
+      </c>
+      <c r="B79" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" s="9">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>124</v>
+      </c>
+      <c r="B80" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" s="9">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>125</v>
+      </c>
+      <c r="B81" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="9">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>126</v>
+      </c>
+      <c r="B82" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="9">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>127</v>
+      </c>
+      <c r="B83" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" s="9">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>128</v>
+      </c>
+      <c r="B84" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" s="9">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>129</v>
+      </c>
+      <c r="B85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" s="9">
+        <v>2660</v>
+      </c>
+      <c r="D85" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>131</v>
+      </c>
+      <c r="B86" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" s="9">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>132</v>
+      </c>
+      <c r="B87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" s="9">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>133</v>
+      </c>
+      <c r="B88" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" s="9">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>134</v>
+      </c>
+      <c r="B89" t="s">
+        <v>135</v>
+      </c>
+      <c r="C89" s="9">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>136</v>
+      </c>
+      <c r="B90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" s="9">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>137</v>
+      </c>
+      <c r="B91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" s="9">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>138</v>
+      </c>
+      <c r="B92" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" s="9">
+        <v>3520</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>139</v>
+      </c>
+      <c r="B93" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" s="9">
+        <v>3960</v>
+      </c>
+      <c r="D93" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>141</v>
+      </c>
+      <c r="B94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" s="9">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>142</v>
+      </c>
+      <c r="B95" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95" s="9">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>143</v>
+      </c>
+      <c r="B96" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" s="9">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>144</v>
+      </c>
+      <c r="B97" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" s="9">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>145</v>
+      </c>
+      <c r="B98" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" s="9">
+        <v>4400</v>
+      </c>
+      <c r="D98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>146</v>
+      </c>
+      <c r="B99" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" s="9">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>147</v>
+      </c>
+      <c r="B100" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" s="9">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>148</v>
+      </c>
+      <c r="B101" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101" s="9">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>149</v>
+      </c>
+      <c r="B102" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" s="9">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>150</v>
+      </c>
+      <c r="B103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" s="9">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>151</v>
+      </c>
+      <c r="B104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C104" s="9">
+        <v>5280</v>
+      </c>
+      <c r="D104" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>153</v>
+      </c>
+      <c r="B105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" s="9">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>154</v>
+      </c>
+      <c r="B106" t="s">
+        <v>16</v>
+      </c>
+      <c r="C106" s="9">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>155</v>
+      </c>
+      <c r="B107" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" s="9">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>156</v>
+      </c>
+      <c r="B108" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108" s="9">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>157</v>
+      </c>
+      <c r="B109" t="s">
+        <v>16</v>
+      </c>
+      <c r="C109" s="9">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>158</v>
+      </c>
+      <c r="B110" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110" s="9">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>159</v>
+      </c>
+      <c r="B111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111" s="9">
+        <v>9000</v>
+      </c>
+      <c r="D111" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>161</v>
+      </c>
+      <c r="B112" t="s">
+        <v>135</v>
+      </c>
+      <c r="C112" s="9">
+        <v>9240</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>162</v>
+      </c>
+      <c r="B113" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" s="9">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>163</v>
+      </c>
+      <c r="B114" t="s">
+        <v>16</v>
+      </c>
+      <c r="C114" s="9">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>164</v>
+      </c>
+      <c r="B115" t="s">
+        <v>16</v>
+      </c>
+      <c r="C115" s="9">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>165</v>
+      </c>
+      <c r="B116" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116" s="9">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>166</v>
+      </c>
+      <c r="B117" t="s">
+        <v>16</v>
+      </c>
+      <c r="C117" s="9">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>167</v>
+      </c>
+      <c r="B118" t="s">
+        <v>16</v>
+      </c>
+      <c r="C118" s="9">
+        <v>11000</v>
+      </c>
+      <c r="D118" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>169</v>
+      </c>
+      <c r="B119" t="s">
+        <v>16</v>
+      </c>
+      <c r="C119" s="9">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>170</v>
+      </c>
+      <c r="B120" t="s">
+        <v>16</v>
+      </c>
+      <c r="C120" s="9">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>171</v>
+      </c>
+      <c r="B121" t="s">
+        <v>16</v>
+      </c>
+      <c r="C121" s="9">
+        <v>13500</v>
+      </c>
+      <c r="D121" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>171</v>
+      </c>
+      <c r="B122" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122" s="9">
+        <v>13500</v>
+      </c>
+      <c r="D122" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>174</v>
+      </c>
+      <c r="B123" t="s">
+        <v>19</v>
+      </c>
+      <c r="C123" s="9">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>175</v>
+      </c>
+      <c r="B124" t="s">
+        <v>16</v>
+      </c>
+      <c r="C124" s="9">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>176</v>
+      </c>
+      <c r="B125" t="s">
+        <v>135</v>
+      </c>
+      <c r="C125" s="9">
+        <v>15840</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>177</v>
+      </c>
+      <c r="B126" t="s">
+        <v>16</v>
+      </c>
+      <c r="C126" s="9">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>178</v>
+      </c>
+      <c r="B127" t="s">
+        <v>16</v>
+      </c>
+      <c r="C127" s="9">
+        <v>19580</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>179</v>
+      </c>
+      <c r="B128" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128" s="9">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>180</v>
+      </c>
+      <c r="B129" t="s">
+        <v>16</v>
+      </c>
+      <c r="C129" s="9">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>181</v>
+      </c>
+      <c r="B130" t="s">
+        <v>16</v>
+      </c>
+      <c r="C130" s="9">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>182</v>
+      </c>
+      <c r="B131" t="s">
+        <v>16</v>
+      </c>
+      <c r="C131" s="9">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>183</v>
+      </c>
+      <c r="B132" t="s">
+        <v>135</v>
+      </c>
+      <c r="C132" s="9">
+        <v>23760</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>184</v>
+      </c>
+      <c r="B133" t="s">
+        <v>16</v>
+      </c>
+      <c r="C133" s="9">
+        <v>24500</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>185</v>
+      </c>
+      <c r="B134" t="s">
+        <v>16</v>
+      </c>
+      <c r="C134" s="9">
+        <v>30800</v>
+      </c>
+      <c r="D134" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>187</v>
+      </c>
+      <c r="B135" t="s">
+        <v>16</v>
+      </c>
+      <c r="C135" s="9">
+        <v>36500</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>188</v>
+      </c>
+      <c r="B136" t="s">
+        <v>16</v>
+      </c>
+      <c r="C136" s="9">
+        <v>45760</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>189</v>
+      </c>
+      <c r="B137" t="s">
+        <v>135</v>
+      </c>
+      <c r="C137" s="9">
+        <v>47520</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>190</v>
+      </c>
+      <c r="B138" t="s">
+        <v>16</v>
+      </c>
+      <c r="C138" s="9">
+        <v>88000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>191</v>
+      </c>
+      <c r="B139" t="s">
+        <v>135</v>
+      </c>
+      <c r="C139" s="9">
+        <v>95040</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>192</v>
+      </c>
+      <c r="B140" t="s">
+        <v>16</v>
+      </c>
+      <c r="C140" s="9">
+        <v>132000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/Input/CM_Quotes/Test_Quote.xlsx
+++ b/Data/Input/CM_Quotes/Test_Quote.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jowino\Documents\UiPath\FTTB_Purchase_Requistion_Raising\Data\Input\CM_Quotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56A8223-CA5B-410F-8FE7-DDBAE8F699BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165B8BF5-4345-48F7-A543-9799BF4B5AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="810" windowWidth="14400" windowHeight="7370" activeTab="1" xr2:uid="{BD57DB04-2CAC-4324-8C2F-19EA2F7D9A31}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{BD57DB04-2CAC-4324-8C2F-19EA2F7D9A31}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="193">
   <si>
     <t>Item Description</t>
   </si>
@@ -617,9 +617,6 @@
   </si>
   <si>
     <t>Units ISP Fiber Deployment- Estate Acquisition Gated Community clusters (over 2000 Units )</t>
-  </si>
-  <si>
-    <t>UOM_1</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1049,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1167,195 +1164,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BA5B91-39BE-4885-A0A9-44D289EC2A66}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>54.400001525878899</v>
-      </c>
-      <c r="D2">
-        <v>124</v>
-      </c>
-      <c r="E2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2">
-        <v>54.4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>54.400001525878899</v>
-      </c>
-      <c r="D3">
-        <v>124</v>
-      </c>
-      <c r="E3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <v>54.4</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>880</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4">
-        <v>880</v>
-      </c>
-      <c r="H4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>880</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5">
-        <v>880</v>
-      </c>
-      <c r="H5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>2200</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6">
-        <v>2200</v>
-      </c>
-      <c r="H6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>4400</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7">
-        <v>4400</v>
-      </c>
-      <c r="H7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1364,8 +1180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864005FC-FDC6-4E63-9CE0-D0AB8CFD1612}">
   <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
